--- a/Meetings/Meetings.xlsx
+++ b/Meetings/Meetings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14694\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADE49B4-91A4-4E52-9B5A-0FEF3E327C23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{422A958B-848F-5B4A-90A5-9EA01FC6B175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>meeting</t>
   </si>
@@ -126,6 +126,21 @@
   </si>
   <si>
     <t>Discussed about deliverable and about structure of the project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peer review </t>
+  </si>
+  <si>
+    <t>Discussed about deliverable 3 and how we are gonna go about the demo on Thursday</t>
+  </si>
+  <si>
+    <t>1)abhinav</t>
+  </si>
+  <si>
+    <t>3)Udhay</t>
+  </si>
+  <si>
+    <t>4)Prakyath</t>
   </si>
 </sst>
 </file>
@@ -480,22 +495,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AAB103-476A-4042-8E9D-78727BB4DF88}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="2" max="2" width="10.4921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.9609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -509,7 +524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -523,7 +538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>43899</v>
       </c>
@@ -540,32 +555,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -588,17 +603,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -621,42 +636,78 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>43840</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>44053</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>43962</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>44176</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>17</v>
       </c>

--- a/Meetings/Meetings.xlsx
+++ b/Meetings/Meetings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14694\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gowtham Reddy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{422A958B-848F-5B4A-90A5-9EA01FC6B175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54B03CA-2048-45B9-A424-C83EAE7480B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>meeting</t>
   </si>
@@ -141,16 +141,43 @@
   </si>
   <si>
     <t>4)Prakyath</t>
+  </si>
+  <si>
+    <t>10:15-11:22</t>
+  </si>
+  <si>
+    <t>10:15-11:24</t>
+  </si>
+  <si>
+    <t>10:15-11:26</t>
+  </si>
+  <si>
+    <t>10:15-11:28</t>
+  </si>
+  <si>
+    <t>10:15-11:32</t>
+  </si>
+  <si>
+    <t>Demo was given on this date</t>
+  </si>
+  <si>
+    <t>Code was inspected on this day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -495,22 +522,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AAB103-476A-4042-8E9D-78727BB4DF88}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.4921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.9609375" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -524,7 +551,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -538,7 +565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>43899</v>
       </c>
@@ -555,32 +582,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -603,17 +630,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -636,7 +663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <v>43840</v>
       </c>
@@ -659,7 +686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <v>44053</v>
       </c>
@@ -682,37 +709,134 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
         <v>43962</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
         <v>44176</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>17</v>
       </c>
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>